--- a/rfuse/rfuse_busy_24_summary.xlsx
+++ b/rfuse/rfuse_busy_24_summary.xlsx
@@ -446,19 +446,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>370</v>
+        <v>403</v>
       </c>
       <c r="C3" s="3">
-        <v>731</v>
+        <v>695</v>
       </c>
       <c r="D3" s="3">
-        <v>1400</v>
+        <v>1359</v>
       </c>
       <c r="E3" s="3">
-        <v>2720</v>
+        <v>2733</v>
       </c>
       <c r="F3" s="3">
-        <v>4838</v>
+        <v>4961</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -493,19 +493,19 @@
         <v>1</v>
       </c>
       <c r="B8" s="3">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C8" s="3">
-        <v>732</v>
+        <v>742</v>
       </c>
       <c r="D8" s="3">
-        <v>1435</v>
+        <v>1420</v>
       </c>
       <c r="E8" s="3">
-        <v>2825</v>
+        <v>2802</v>
       </c>
       <c r="F8" s="3">
-        <v>5590</v>
+        <v>5474</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -540,19 +540,19 @@
         <v>1</v>
       </c>
       <c r="B13" s="3">
-        <v>362</v>
+        <v>237</v>
       </c>
       <c r="C13" s="3">
-        <v>419</v>
+        <v>737</v>
       </c>
       <c r="D13" s="3">
-        <v>1469</v>
+        <v>1014</v>
       </c>
       <c r="E13" s="3">
-        <v>1916</v>
+        <v>2099</v>
       </c>
       <c r="F13" s="3">
-        <v>3579</v>
+        <v>3540</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -587,19 +587,19 @@
         <v>1</v>
       </c>
       <c r="B18" s="3">
-        <v>1183</v>
+        <v>1084</v>
       </c>
       <c r="C18" s="3">
-        <v>2282</v>
+        <v>2252</v>
       </c>
       <c r="D18" s="3">
-        <v>4211</v>
+        <v>3896</v>
       </c>
       <c r="E18" s="3">
-        <v>6945</v>
+        <v>5983</v>
       </c>
       <c r="F18" s="3">
-        <v>8785</v>
+        <v>8935</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -634,19 +634,19 @@
         <v>1</v>
       </c>
       <c r="B23" s="3">
-        <v>772</v>
+        <v>817</v>
       </c>
       <c r="C23" s="3">
-        <v>1541</v>
+        <v>1566</v>
       </c>
       <c r="D23" s="3">
-        <v>2818</v>
+        <v>2923</v>
       </c>
       <c r="E23" s="3">
         <v>4827</v>
       </c>
       <c r="F23" s="3">
-        <v>8062</v>
+        <v>7746</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -681,19 +681,19 @@
         <v>1</v>
       </c>
       <c r="B28" s="3">
-        <v>10700</v>
+        <v>11500</v>
       </c>
       <c r="C28" s="3">
-        <v>48400</v>
+        <v>48700</v>
       </c>
       <c r="D28" s="3">
-        <v>88700</v>
+        <v>86600</v>
       </c>
       <c r="E28" s="3">
-        <v>151000</v>
+        <v>152000</v>
       </c>
       <c r="F28" s="3">
-        <v>255000</v>
+        <v>251000</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -728,16 +728,16 @@
         <v>1</v>
       </c>
       <c r="B33" s="3">
-        <v>354</v>
+        <v>228</v>
       </c>
       <c r="C33" s="3">
-        <v>415</v>
+        <v>506</v>
       </c>
       <c r="D33" s="3">
-        <v>796</v>
+        <v>900</v>
       </c>
       <c r="E33" s="3">
-        <v>1878</v>
+        <v>1554</v>
       </c>
       <c r="F33" s="3">
         <v>2609</v>
@@ -775,19 +775,19 @@
         <v>1</v>
       </c>
       <c r="B38" s="3">
-        <v>1304</v>
+        <v>1319</v>
       </c>
       <c r="C38" s="3">
-        <v>2617</v>
+        <v>2314</v>
       </c>
       <c r="D38" s="3">
-        <v>4350</v>
+        <v>4361</v>
       </c>
       <c r="E38" s="3">
-        <v>6089</v>
+        <v>6113</v>
       </c>
       <c r="F38" s="3">
-        <v>8945</v>
+        <v>8837</v>
       </c>
     </row>
   </sheetData>
